--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.882106333333333</v>
+        <v>0.120179</v>
       </c>
       <c r="H2">
-        <v>11.646319</v>
+        <v>0.360537</v>
       </c>
       <c r="I2">
-        <v>0.6257373677154582</v>
+        <v>0.04921086431616203</v>
       </c>
       <c r="J2">
-        <v>0.6257373677154581</v>
+        <v>0.04921086431616202</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N2">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O2">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P2">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q2">
-        <v>9.024983635976222</v>
+        <v>0.080312380867</v>
       </c>
       <c r="R2">
-        <v>81.224852723786</v>
+        <v>0.722811427803</v>
       </c>
       <c r="S2">
-        <v>0.02799501426266948</v>
+        <v>0.0006537243785872707</v>
       </c>
       <c r="T2">
-        <v>0.02799501426266947</v>
+        <v>0.0006537243785872705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.882106333333333</v>
+        <v>0.120179</v>
       </c>
       <c r="H3">
-        <v>11.646319</v>
+        <v>0.360537</v>
       </c>
       <c r="I3">
-        <v>0.6257373677154582</v>
+        <v>0.04921086431616203</v>
       </c>
       <c r="J3">
-        <v>0.6257373677154581</v>
+        <v>0.04921086431616202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P3">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q3">
-        <v>74.82728771245789</v>
+        <v>2.316440570620333</v>
       </c>
       <c r="R3">
-        <v>673.445589412121</v>
+        <v>20.847965135583</v>
       </c>
       <c r="S3">
-        <v>0.2321102254852499</v>
+        <v>0.01885529548763938</v>
       </c>
       <c r="T3">
-        <v>0.2321102254852498</v>
+        <v>0.01885529548763937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.882106333333333</v>
+        <v>0.120179</v>
       </c>
       <c r="H4">
-        <v>11.646319</v>
+        <v>0.360537</v>
       </c>
       <c r="I4">
-        <v>0.6257373677154582</v>
+        <v>0.04921086431616203</v>
       </c>
       <c r="J4">
-        <v>0.6257373677154581</v>
+        <v>0.04921086431616202</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P4">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q4">
-        <v>117.8718446339361</v>
+        <v>3.648977951641667</v>
       </c>
       <c r="R4">
-        <v>1060.846601705425</v>
+        <v>32.840801564775</v>
       </c>
       <c r="S4">
-        <v>0.3656321279675389</v>
+        <v>0.02970184444993538</v>
       </c>
       <c r="T4">
-        <v>0.3656321279675387</v>
+        <v>0.02970184444993537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.522503666666666</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H5">
-        <v>4.567511</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I5">
-        <v>0.2454047764062963</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="J5">
-        <v>0.2454047764062962</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N5">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O5">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P5">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q5">
-        <v>3.539462729137111</v>
+        <v>1.017448092834333</v>
       </c>
       <c r="R5">
-        <v>31.855164562234</v>
+        <v>9.157032835509</v>
       </c>
       <c r="S5">
-        <v>0.01097922318544595</v>
+        <v>0.008281794351663003</v>
       </c>
       <c r="T5">
-        <v>0.01097922318544595</v>
+        <v>0.008281794351663001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.522503666666666</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H6">
-        <v>4.567511</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I6">
-        <v>0.2454047764062963</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="J6">
-        <v>0.2454047764062962</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P6">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q6">
-        <v>29.34613586720544</v>
+        <v>29.34613586720545</v>
       </c>
       <c r="R6">
-        <v>264.115222804849</v>
+        <v>264.1152228048491</v>
       </c>
       <c r="S6">
-        <v>0.0910301364848721</v>
+        <v>0.2388708219906507</v>
       </c>
       <c r="T6">
-        <v>0.09103013648487207</v>
+        <v>0.2388708219906507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.522503666666666</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H7">
-        <v>4.567511</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I7">
-        <v>0.2454047764062963</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="J7">
-        <v>0.2454047764062962</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P7">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q7">
-        <v>46.22756314298055</v>
+        <v>46.22756314298056</v>
       </c>
       <c r="R7">
-        <v>416.048068286825</v>
+        <v>416.0480682868251</v>
       </c>
       <c r="S7">
-        <v>0.1433954167359782</v>
+        <v>0.3762817720382896</v>
       </c>
       <c r="T7">
-        <v>0.1433954167359782</v>
+        <v>0.3762817720382896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.398322</v>
       </c>
       <c r="I8">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="J8">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N8">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O8">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P8">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q8">
-        <v>1.858511414963111</v>
+        <v>0.5342446126353333</v>
       </c>
       <c r="R8">
-        <v>16.726602734668</v>
+        <v>4.808201513717999</v>
       </c>
       <c r="S8">
-        <v>0.005765002538267583</v>
+        <v>0.004348628737417187</v>
       </c>
       <c r="T8">
-        <v>0.005765002538267582</v>
+        <v>0.004348628737417186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.398322</v>
       </c>
       <c r="I9">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="J9">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P9">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q9">
         <v>15.40915462826644</v>
@@ -1004,10 +1004,10 @@
         <v>138.682391654398</v>
       </c>
       <c r="S9">
-        <v>0.04779836961414464</v>
+        <v>0.1254269880331457</v>
       </c>
       <c r="T9">
-        <v>0.04779836961414463</v>
+        <v>0.1254269880331456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.398322</v>
       </c>
       <c r="I10">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="J10">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P10">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q10">
         <v>24.27330370790555</v>
@@ -1066,10 +1066,10 @@
         <v>218.45973337115</v>
       </c>
       <c r="S10">
-        <v>0.07529448372583333</v>
+        <v>0.1975791305326719</v>
       </c>
       <c r="T10">
-        <v>0.07529448372583332</v>
+        <v>0.1975791305326718</v>
       </c>
     </row>
   </sheetData>
